--- a/Activity Bar Chart.xlsx
+++ b/Activity Bar Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiph\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiph\OneDrive\Tài liệu\GitHub\CNPM-Th-y-Huy-T7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579ABD97-F85B-41EA-B49B-7051E3654F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3C28D-B241-4DF1-8AE2-6FF36026365B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$A$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$10:$A$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>TASK</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Nhóm</t>
   </si>
   <si>
-    <t>Bội, Xuân</t>
-  </si>
-  <si>
     <t>Xuân</t>
   </si>
   <si>
@@ -262,6 +259,15 @@
   </si>
   <si>
     <t>6. Sơ đồ Sequence Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 Bảng yêu cầu-Bảng trách nhiệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 Khái quát về đồ án</t>
+  </si>
+  <si>
+    <t>Nhóm trưởng</t>
   </si>
 </sst>
 </file>
@@ -337,17 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,8 +363,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,9 +427,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>START DATE</c:v>
                 </c:pt>
@@ -434,15 +443,21 @@
                   <c:v>28-09-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>02-10-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28-09-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>05-10-20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10-10-20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>10-10-20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>16-10-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -460,7 +475,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$60,Sheet1!$A$61,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65)</c:f>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -498,7 +513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$7,Sheet1!$B$8,Sheet1!$B$60,Sheet1!$B$61,Sheet1!$B$62,Sheet1!$B$63,Sheet1!$B$64,Sheet1!$B$65)</c:f>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$9,Sheet1!$B$10,Sheet1!$B$62,Sheet1!$B$63,Sheet1!$B$64,Sheet1!$B$65,Sheet1!$B$66,Sheet1!$B$67)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
@@ -567,7 +582,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$60,Sheet1!$A$61,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65)</c:f>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -605,7 +620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$4,Sheet1!$D$6,Sheet1!$D$7,Sheet1!$D$8,Sheet1!$D$60,Sheet1!$D$61,Sheet1!$D$62,Sheet1!$D$63,Sheet1!$D$64,Sheet1!$D$65)</c:f>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$6,Sheet1!$D$9,Sheet1!$D$10,Sheet1!$D$62,Sheet1!$D$63,Sheet1!$D$64,Sheet1!$D$65,Sheet1!$D$66,Sheet1!$D$67)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1375,7 +1390,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1668,10 +1683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A3:E65"/>
+  <dimension ref="A3:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,33 +1719,33 @@
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>44100</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>44102</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <f>C4-B4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>44100</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>44102</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f>C5-B5</f>
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1738,630 +1753,666 @@
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>44102</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>44108</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:D10" si="0">C6-B6</f>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D12" si="0">C6-B6</f>
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44106</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44108</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D8" si="1">C7-B7</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44102</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B9" s="5">
         <v>44109</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C9" s="5">
         <v>44112</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B10" s="5">
         <v>44114</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C10" s="5">
         <v>44122</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="5">
         <v>44114</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="5">
         <v>44120</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B12" s="5">
         <v>44120</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="5">
         <v>44122</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B15" s="5">
         <v>44120</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="5">
         <v>44122</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:D14" si="1">C13-B13</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="2">C15-B15</f>
         <v>2</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B16" s="5">
         <v>44120</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C16" s="5">
         <v>44122</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="1"/>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B19" s="5">
         <v>44120</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C19" s="5">
         <v>44122</v>
       </c>
-      <c r="D17" s="6">
-        <f>C17-B17</f>
+      <c r="D19" s="4">
+        <f>C19-B19</f>
         <v>2</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B23" s="5">
         <v>44120</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="5">
         <v>44122</v>
       </c>
-      <c r="D21" s="6">
-        <f>C21-B21</f>
+      <c r="D23" s="4">
+        <f>C23-B23</f>
         <v>2</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B27" s="5">
         <v>44120</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="5">
         <v>44122</v>
       </c>
-      <c r="D25" s="6">
-        <f>C25-B25</f>
+      <c r="D27" s="4">
+        <f>C27-B27</f>
         <v>2</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B34" s="5">
         <v>44120</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C34" s="5">
         <v>44122</v>
       </c>
-      <c r="D32" s="6">
-        <f>C32-B32</f>
+      <c r="D34" s="4">
+        <f>C34-B34</f>
         <v>2</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B40" s="5">
         <v>44120</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C40" s="5">
         <v>44122</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" ref="D38:D39" si="2">C38-B38</f>
+      <c r="D40" s="4">
+        <f t="shared" ref="D40:D41" si="3">C40-B40</f>
         <v>2</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B41" s="5">
         <v>44120</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C41" s="5">
         <v>44122</v>
       </c>
-      <c r="D39" s="6">
-        <f t="shared" si="2"/>
+      <c r="D41" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B46" s="5">
         <v>44120</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C46" s="5">
         <v>44122</v>
       </c>
-      <c r="D44" s="6">
-        <f>C44-B44</f>
+      <c r="D46" s="4">
+        <f>C46-B46</f>
         <v>2</v>
       </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B49" s="5">
         <v>44120</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C49" s="5">
         <v>44122</v>
       </c>
-      <c r="D47" s="6">
-        <f>C47-B47</f>
+      <c r="D49" s="4">
+        <f>C49-B49</f>
         <v>2</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="E49" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B52" s="5">
         <v>44120</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C52" s="5">
         <v>44122</v>
       </c>
-      <c r="D50" s="6">
-        <f t="shared" ref="D50:D51" si="3">C50-B50</f>
+      <c r="D52" s="4">
+        <f t="shared" ref="D52:D53" si="4">C52-B52</f>
         <v>2</v>
       </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B53" s="5">
         <v>44120</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C53" s="5">
         <v>44122</v>
       </c>
-      <c r="D51" s="6">
-        <f t="shared" si="3"/>
+      <c r="D53" s="4">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="E53" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B56" s="5">
         <v>44120</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C56" s="5">
         <v>44122</v>
       </c>
-      <c r="D54" s="6">
-        <f>C54-B54</f>
+      <c r="D56" s="4">
+        <f>C56-B56</f>
         <v>2</v>
       </c>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>4.16</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>4.17</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="7">
-        <v>44123</v>
-      </c>
-      <c r="C60" s="7">
-        <v>44128</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" ref="D60:D65" si="4">C60-B60</f>
-        <v>5</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="7">
-        <v>44129</v>
-      </c>
-      <c r="C61" s="7">
-        <v>44136</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="7">
-        <v>44136</v>
-      </c>
-      <c r="C62" s="7">
-        <v>44143</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C62" s="5">
+        <v>44128</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" ref="D62:D67" si="5">C62-B62</f>
+        <v>5</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="7">
-        <v>44145</v>
-      </c>
-      <c r="C63" s="7">
-        <v>44163</v>
-      </c>
-      <c r="D63" s="6">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="E63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44129</v>
+      </c>
+      <c r="C63" s="5">
+        <v>44136</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="7">
-        <v>44163</v>
-      </c>
-      <c r="C64" s="7">
-        <v>44168</v>
-      </c>
-      <c r="D64" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="E64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="5">
+        <v>44136</v>
+      </c>
+      <c r="C64" s="5">
+        <v>44143</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="5">
+        <v>44145</v>
+      </c>
+      <c r="C65" s="5">
+        <v>44163</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44163</v>
+      </c>
+      <c r="C66" s="5">
+        <v>44168</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B67" s="5">
         <v>44169</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C67" s="5">
         <v>44170</v>
       </c>
-      <c r="D65" s="6">
-        <f t="shared" si="4"/>
+      <c r="D67" s="4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E67" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A59" xr:uid="{75D9551C-2C65-45C6-A810-606835BFCA49}">
+  <autoFilter ref="A10:A61" xr:uid="{75D9551C-2C65-45C6-A810-606835BFCA49}">
     <filterColumn colId="0">
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="E34:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Activity Bar Chart.xlsx
+++ b/Activity Bar Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiph\OneDrive\Tài liệu\GitHub\CNPM-Th-y-Huy-T7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3C28D-B241-4DF1-8AE2-6FF36026365B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9592D-9DAB-43A6-83AF-DAC5639D741C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>TASK</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Nhóm trưởng</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.16 DFD mức 1 chức năng quản lý báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.17 DFD mức 1 chức năng quản lý bán hàng</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67)</c:f>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67,Sheet1!$A$68,Sheet1!$A$69)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -513,7 +522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$9,Sheet1!$B$10,Sheet1!$B$62,Sheet1!$B$63,Sheet1!$B$64,Sheet1!$B$65,Sheet1!$B$66,Sheet1!$B$67)</c:f>
+              <c:f>(Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$9,Sheet1!$B$10,Sheet1!$B$64,Sheet1!$B$65,Sheet1!$B$66,Sheet1!$B$67,Sheet1!$B$68,Sheet1!$B$69)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
@@ -582,7 +591,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$62,Sheet1!$A$63,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67)</c:f>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$10,Sheet1!$A$64,Sheet1!$A$65,Sheet1!$A$66,Sheet1!$A$67,Sheet1!$A$68,Sheet1!$A$69)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -620,7 +629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$4,Sheet1!$D$6,Sheet1!$D$9,Sheet1!$D$10,Sheet1!$D$62,Sheet1!$D$63,Sheet1!$D$64,Sheet1!$D$65,Sheet1!$D$66,Sheet1!$D$67)</c:f>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$6,Sheet1!$D$9,Sheet1!$D$10,Sheet1!$D$64,Sheet1!$D$65,Sheet1!$D$66,Sheet1!$D$67,Sheet1!$D$68,Sheet1!$D$69)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1390,7 +1399,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1683,10 +1692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A3:E67"/>
+  <dimension ref="A3:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2292,110 +2301,144 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44120</v>
+      </c>
+      <c r="C62" s="5">
+        <v>44122</v>
+      </c>
+      <c r="D62" s="4">
+        <f>C62-B62</f>
+        <v>2</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44120</v>
+      </c>
+      <c r="C63" s="5">
+        <v>44122</v>
+      </c>
+      <c r="D63" s="4">
+        <f>C63-B63</f>
+        <v>2</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B64" s="5">
         <v>44123</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C64" s="5">
         <v>44128</v>
       </c>
-      <c r="D62" s="4">
-        <f t="shared" ref="D62:D67" si="5">C62-B62</f>
+      <c r="D64" s="4">
+        <f t="shared" ref="D64:D69" si="5">C64-B64</f>
         <v>5</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B65" s="5">
         <v>44129</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C65" s="5">
         <v>44136</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D65" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B66" s="5">
         <v>44136</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C66" s="5">
         <v>44143</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D66" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B67" s="5">
         <v>44145</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C67" s="5">
         <v>44163</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D67" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B68" s="5">
         <v>44163</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C68" s="5">
         <v>44168</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D68" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B69" s="5">
         <v>44169</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C69" s="5">
         <v>44170</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2405,7 +2448,8 @@
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="E16:E19"/>

--- a/Activity Bar Chart.xlsx
+++ b/Activity Bar Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiph\OneDrive\Tài liệu\GitHub\CNPM-Th-y-Huy-T7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9592D-9DAB-43A6-83AF-DAC5639D741C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAABB0F-5795-4E66-A2E1-CB713B55E596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>TASK</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">    4.17 DFD mức 1 chức năng quản lý bán hàng</t>
+  </si>
+  <si>
+    <t>Bội, Xuân</t>
   </si>
 </sst>
 </file>
@@ -372,14 +375,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,7 +1698,7 @@
   <dimension ref="A3:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1876,7 +1879,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1884,13 +1887,13 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1906,7 +1909,7 @@
         <f t="shared" ref="D15:D16" si="2">C15-B15</f>
         <v>2</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1922,7 +1925,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1952,7 +1955,7 @@
         <f>C19-B19</f>
         <v>2</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1983,7 +1986,7 @@
         <f>C23-B23</f>
         <v>2</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1991,19 +1994,19 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -2019,7 +2022,7 @@
         <f>C27-B27</f>
         <v>2</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2065,7 +2068,7 @@
         <f>C34-B34</f>
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2073,31 +2076,31 @@
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -2113,7 +2116,7 @@
         <f t="shared" ref="D40:D41" si="3">C40-B40</f>
         <v>2</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -2129,7 +2132,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2137,25 +2140,25 @@
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -2171,7 +2174,7 @@
         <f>C46-B46</f>
         <v>2</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2197,7 +2200,7 @@
         <f>C49-B49</f>
         <v>2</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2205,13 +2208,13 @@
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -2227,7 +2230,7 @@
         <f t="shared" ref="D52:D53" si="4">C52-B52</f>
         <v>2</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -2243,7 +2246,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2251,13 +2254,13 @@
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -2273,7 +2276,7 @@
         <f>C56-B56</f>
         <v>2</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -2314,7 +2317,7 @@
         <f>C62-B62</f>
         <v>2</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2332,7 +2335,7 @@
         <f>C63-B63</f>
         <v>2</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
